--- a/streamlit/stock_app/currentValue.xlsx
+++ b/streamlit/stock_app/currentValue.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28Feb_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="currentValue" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="currentValue" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29 Feb" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,11 +27,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -451,19 +448,224 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="9.21875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="43.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>28Feb_1</t>
-        </is>
+          <t>scripCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>companyName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>29 Feb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>29 Feb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>542145</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Roni Households Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>535657</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OBJECTONE INFORMATION SYSTEMS LTD.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>543460</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quality RO Industries Ltd</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>507966</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RAS RESORTS &amp; APART HOTELS LTD.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>516098</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VENTURA TEXTILES LTD.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>538788</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gilada Finance &amp; Investments Ltd</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>508918</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ironwood Education Ltd</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>531370</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sparc Electrex Ltd</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>532701</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cella Space Ltd</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>532825</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JAGJANANI TEXTILES LTD.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>542682</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Harish Textile Engineers Ltd</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D12" t="n">
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>539117</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sujala Trading &amp; Holdings Ltd</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.52</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,385 +700,161 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>28Feb_1</t>
+          <t>29 Feb</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>500325</v>
+        <v>542145</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RELIANCE INDUSTRIES LTD.</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2909</v>
+          <t>Roni Households Ltd</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>532540</v>
+        <v>535657</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TATA CONSULTANCY SERVICES LTD.</t>
+          <t>OBJECTONE INFORMATION SYSTEMS LTD.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4116.4</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>500180</v>
+        <v>543460</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HDFC Bank Ltd</t>
+          <t>Quality RO Industries Ltd</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1408.15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>532174</v>
+        <v>507966</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ICICI BANK LTD.</t>
+          <t>RAS RESORTS &amp; APART HOTELS LTD.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1046.15</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>500209</v>
+        <v>516098</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INFOSYS LTD.</t>
+          <t>VENTURA TEXTILES LTD.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1670.1</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>500112</v>
+        <v>538788</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STATE BANK OF INDIA</t>
+          <t>Gilada Finance &amp; Investments Ltd</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>742.35</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>543526</v>
+        <v>508918</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation of India</t>
+          <t>Ironwood Education Ltd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1006.6</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>532454</v>
+        <v>531370</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BHARTI AIRTEL LTD.</t>
+          <t>Sparc Electrex Ltd</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1128.7</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>500696</v>
+        <v>532701</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HINDUSTAN UNILEVER LTD.</t>
+          <t>Cella Space Ltd</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2421.25</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>500875</v>
+        <v>532825</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITC LTD.</t>
+          <t>JAGJANANI TEXTILES LTD.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>408.6</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>500510</v>
+        <v>542682</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LARSEN &amp; TOUBRO LTD.</t>
+          <t>Harish Textile Engineers Ltd</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3470.75</v>
+        <v>49.91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>532281</v>
+        <v>539117</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HCL TECHNOLOGIES LTD.</t>
+          <t>Sujala Trading &amp; Holdings Ltd</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1650.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>500034</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Bajaj Finance Limited</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>6499.95</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>512599</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ADANI ENTERPRISES LTD.</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>3216.95</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>524715</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SUN PHARMACEUTICAL INDUSTRIES LTD.</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1573.25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>532500</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MARUTI SUZUKI INDIA LTD.</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>11150.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>500312</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Oil and Natural Gas Corporation Ltd</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>265.35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>500247</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>KOTAK MAHINDRA BANK LTD.</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1683.55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>532555</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NTPC LTD.</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>532215</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AXIS BANK LTD.</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1074.65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>500114</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Titan Company Limited</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3592.6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>500570</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>957.75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>541450</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Adani Green Energy Ltd</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1918.75</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>500820</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ASIAN PAINTS LTD.</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2793.75</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>532538</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ULTRATECH CEMENT LTD.</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>9803.25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>533278</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>COAL INDIA LTD.</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>433.7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>532921</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ADANI PORTS AND SPECIAL ECONOMIC ZONE LTD.</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1299.05</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>507685</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>WIPRO LTD.</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>517.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>530965</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>INDIAN OIL CORPORATION LTD.</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>167.4</v>
+        <v>31.52</v>
       </c>
     </row>
   </sheetData>

--- a/streamlit/stock_app/currentValue.xlsx
+++ b/streamlit/stock_app/currentValue.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02 Mar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04 Mar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -514,4 +515,547 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>scripCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>companyName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>04 Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>500002</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABB India Limited</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5606.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>500003</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AEGIS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>437.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>500008</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amara Raja Energy &amp; Mobility Ltd</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>500009</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AMBALAL SARABHAI ENTERPRISES LTD.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>500012</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ANDHRA PETROCHEMICALS LTD.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>86.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>500014</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Utique Enterprises Ltd</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>500016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARUNA HOTELS LTD.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>500020</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOMBAY DYEING &amp; MFG.CO.LTD.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>500023</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asian Hotels (North) Limited</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>132.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>500027</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATUL LTD.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>500028</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATV PROJECTS INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>500031</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BAJAJ ELECTRICALS LTD.-$</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>500032</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bajaj Hindusthan Sugar Limited</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>500033</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FORCE MOTORS LTD.-$</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6494.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>500034</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6607.55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>500038</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BALRAMPUR CHINI MILLS LTD.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>500039</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BANCO PRODUCTS (INDIA) LTD.-$</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>500040</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CENTURY TEXTILES &amp; INDUSTRIES LTD.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>500041</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BANNARI AMMAN SUGARS LTD.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2634.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>500042</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BASF INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>500043</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BATA INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>500048</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BEML LTD.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3170.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>500049</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BHARAT ELECTRONICS LTD.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>500052</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BHANSALI ENGINEERING POLYMERS LTD.-$</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>500058</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BIHAR SPONGE IRON LTD.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>500059</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BINANI INDUSTRIES LTD.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>500060</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Birla Cable Ltd</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>290.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>500067</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BLUE STAR LTD.</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1308.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>500068</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DISA INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>500069</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Quest Capital Markets Ltd</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>500074</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BPL LTD.</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>500078</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Oriental Aromatics Ltd-$</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>352.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>500083</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CENTURY EXTRUSIONS LTD.</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>500084</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CESC LTD.</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>132.45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>500085</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHAMBAL FERTILISERS &amp; CHEMICALS LTD.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>500086</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EXIDE INDUSTRIES LTD.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>326.15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>500087</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CIPLA LTD.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1476.95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>500089</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DIC INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>500092</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CRISIL LTD.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4972.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>